--- a/Raiz/Trabajos/Práctico/Trabajo_Practico_11/Condiciones_Externas.xlsx
+++ b/Raiz/Trabajos/Práctico/Trabajo_Practico_11/Condiciones_Externas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jorge\Desktop\Cursado 2021\ISW\2021_ISW_4K3_G3\Raiz\Trabajos\Práctico\Trabajo_Practico_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102D4EB0-16A2-43B8-B9BC-74F2241F49CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A57FE-FB05-4100-9E71-C1C32BE0EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Condición Externa</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Monto a pagar</t>
   </si>
   <si>
-    <t>Número positivo de dos cifras decimales</t>
-  </si>
-  <si>
     <t>Número de más de dos cifras decimales</t>
   </si>
   <si>
@@ -232,6 +229,12 @@
   </si>
   <si>
     <t>Mensaje informando que el pago ha sido rechazado</t>
+  </si>
+  <si>
+    <t>Texto Vacío</t>
+  </si>
+  <si>
+    <t>Número positivo de hasta dos cifras decimales</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,6 +488,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,18 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:K37"/>
+  <dimension ref="A4:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +831,7 @@
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
     <col min="3" max="3" width="30" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" customWidth="1"/>
     <col min="9" max="9" width="30" style="3" customWidth="1"/>
@@ -831,47 +840,47 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="G4" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="G4" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="41"/>
       <c r="G5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9">
@@ -886,24 +895,24 @@
       <c r="E6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>57</v>
+      <c r="G6" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="H6" s="9">
         <v>47</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="9">
         <v>48</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="12">
@@ -912,18 +921,18 @@
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="7"/>
       <c r="I7" s="24"/>
       <c r="J7" s="7">
         <v>49</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="9">
@@ -938,23 +947,23 @@
       <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="7"/>
       <c r="I8" s="24"/>
       <c r="J8" s="7">
         <v>50</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="12">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D9" s="16">
         <v>7</v>
@@ -962,18 +971,18 @@
       <c r="E9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="7"/>
       <c r="I9" s="24"/>
       <c r="J9" s="7">
         <v>51</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="9">
@@ -988,60 +997,60 @@
       <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="7"/>
       <c r="I10" s="24"/>
       <c r="J10" s="7">
         <v>52</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="16">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="38"/>
+      <c r="E11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="44"/>
       <c r="H11" s="7"/>
       <c r="I11" s="24"/>
       <c r="J11" s="7">
         <v>53</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
+      <c r="C12" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="11"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="18"/>
       <c r="I12" s="24"/>
       <c r="J12" s="18">
         <v>54</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="12">
         <v>12</v>
       </c>
@@ -1057,18 +1066,18 @@
         <v>55</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="15">
         <v>15</v>
@@ -1083,11 +1092,11 @@
         <v>56</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="12">
         <v>14</v>
       </c>
@@ -1100,41 +1109,41 @@
       <c r="E15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="35">
+        <v>57</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="44">
-        <v>57</v>
-      </c>
-      <c r="I15" s="43" t="s">
+      <c r="J15" s="33">
+        <v>58</v>
+      </c>
+      <c r="K15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="42">
-        <v>58</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9">
         <v>17</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D16" s="15">
         <v>18</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
       <c r="D17" s="25">
@@ -1144,287 +1153,300 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="27">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="25">
         <v>20</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="27">
+        <v>59</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="9">
+        <v>21</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="15">
+        <v>22</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9">
+        <v>25</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="15">
+        <v>26</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="19">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9">
+        <v>29</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9">
-        <v>21</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="15">
-        <v>22</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="19">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16">
-        <v>24</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="D26" s="15">
+        <v>30</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19">
+        <v>31</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16">
+        <v>32</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="15">
-        <v>26</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="19">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16">
-        <v>28</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="9">
-        <v>29</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="15">
-        <v>30</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="19">
-        <v>31</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16">
-        <v>32</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="9">
-        <v>33</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="15">
+      <c r="C29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="15">
         <v>34</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="19">
-        <v>35</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
       <c r="D30" s="19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="19">
+        <v>37</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="19">
         <v>38</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E33" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16">
+        <v>39</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="9">
+        <v>40</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="15">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16">
-        <v>39</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="E35" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16">
+        <v>42</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="9">
         <v>43</v>
       </c>
-      <c r="B34" s="9">
-        <v>40</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="C37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="15">
+        <v>45</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="12">
         <v>44</v>
       </c>
-      <c r="D34" s="15">
-        <v>41</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16">
-        <v>42</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="C38" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="16">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="9">
-        <v>43</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="15">
-        <v>45</v>
-      </c>
-      <c r="E36" s="17" t="s">
+      <c r="E38" s="23" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="12">
-        <v>44</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="16">
-        <v>46</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G6:G12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
